--- a/medicine/Mort/Nécropole_nationale_de_Courcelles-le-Comte/Nécropole_nationale_de_Courcelles-le-Comte.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Courcelles-le-Comte/Nécropole_nationale_de_Courcelles-le-Comte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Courcelles-le-Comte</t>
+          <t>Nécropole_nationale_de_Courcelles-le-Comte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Courcelles-le-Comte est un cimetière militaire français sis sur le territoire de la commune de Courcelles-le-Comte, dans le département du Pas-de-Calais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Courcelles-le-Comte</t>
+          <t>Nécropole_nationale_de_Courcelles-le-Comte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole est située sur la route départementale D 32, au sud de la commune de Courcelles-le-Comte, juste après le panneau d'entrée de la commune.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Courcelles-le-Comte</t>
+          <t>Nécropole_nationale_de_Courcelles-le-Comte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole rassemble les dépouilles de 275 soldats inconnus inhumés en ossuaire ainsi que 39 stèles nominatives de soldats « mort pour la France » lors des batailles d’Artois et, plus précisément, durant les combats du 27 septembre au 4 octobre 1914 date à laquelle le village , complètement détruit par les bombardements, passe aux mains des Allemands[1].
-A l'issue de la guerre, les corps des soldats français sont exhumés et inhumés en ce lieu  [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole rassemble les dépouilles de 275 soldats inconnus inhumés en ossuaire ainsi que 39 stèles nominatives de soldats « mort pour la France » lors des batailles d’Artois et, plus précisément, durant les combats du 27 septembre au 4 octobre 1914 date à laquelle le village , complètement détruit par les bombardements, passe aux mains des Allemands.
+A l'issue de la guerre, les corps des soldats français sont exhumés et inhumés en ce lieu  .
 </t>
         </is>
       </c>
